--- a/automatismo.xlsx
+++ b/automatismo.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="FESTIVOS" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="OTRA INFORMACION" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="INACTIVAS" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,10 +458,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44935</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>44935</v>
       </c>
       <c r="C2" t="inlineStr">
@@ -469,10 +471,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45005</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>45005</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,10 +484,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45022</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>45022</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -495,10 +497,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45023</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>45023</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -508,10 +510,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45047</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>45047</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -521,10 +523,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45068</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>45068</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -534,10 +536,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45089</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>45089</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -547,10 +549,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>45096</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -560,10 +562,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>45110</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -573,10 +575,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45127</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -586,10 +588,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45145</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -599,10 +601,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45159</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>45153</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -612,10 +614,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>45215</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>45215</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -625,10 +627,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>45236</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -638,10 +640,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>45243</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>45243</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -651,10 +653,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>45268</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>45268</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -664,10 +666,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>45285</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
         <v>45285</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -677,10 +679,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>45292</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>45292</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -690,10 +692,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="3" t="n">
         <v>45299</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -703,10 +705,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>45376</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -716,10 +718,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>45379</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3" t="n">
         <v>45379</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -729,10 +731,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>45380</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3" t="n">
         <v>45380</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -742,10 +744,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>45413</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>45413</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -755,10 +757,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>45425</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3" t="n">
         <v>45425</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -768,10 +770,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>45446</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="3" t="n">
         <v>45446</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -781,10 +783,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>45453</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3" t="n">
         <v>45453</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -794,10 +796,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>45474</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="3" t="n">
         <v>45474</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -807,10 +809,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>45493</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="3" t="n">
         <v>45493</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -820,10 +822,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>45511</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3" t="n">
         <v>45511</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -833,10 +835,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>45523</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="3" t="n">
         <v>45523</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -846,10 +848,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>45579</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="3" t="n">
         <v>45579</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -859,10 +861,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>45600</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3" t="n">
         <v>45600</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -872,10 +874,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>45607</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="3" t="n">
         <v>45607</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -885,10 +887,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>45651</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
         <v>45651</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,105 +1038,2877 @@
         </is>
       </c>
     </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LLAVE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>LLAVE_CED</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA SIN PAGO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PLACA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CEDULA TECNICO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRE  TECNICO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de Ingreso</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PROYECTO</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>LÍNEA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SOAT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TECNOMECANICA</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BD_MOTOS_APP.ESTADO</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ESTADO</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>vehículo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>45405KKW70C</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>454051006886735</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Aprov Cobre - FTTH</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>TECNOMECÁNICA VENCIDA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>45406NXY41G</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>454061001056489</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>45404QCY08E</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>454041062291619</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>QCY08E</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1062291619</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Guejia Orejuela Alex Emiliano</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se valida bombillo que no le funcionan las luces bajas </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>45405QCY08E</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>454051062291619</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>QCY08E</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1062291619</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Guejia Orejuela Alex Emiliano</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se valida bombillo que no le funcionan las luces bajas </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>45406QCY08E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>454061062291619</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>QCY08E</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1062291619</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Guejia Orejuela Alex Emiliano</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se valida bombillo que no le funcionan las luces bajas </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>45406IXQ86F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>454061073715286</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>IXQ86F</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1073715286</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Castellano Caceres Jose Luis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>luces de stop no encienden con ninguno de los 2 frenos</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>45406UZH56D</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>454061022355666</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>45404ERT29E</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>454041014255357</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ERT29E</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1014255357</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Castañeda Montes David Esteban</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Llanta delantera no cumple profundidad (0.02mm) </t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>45405ERT29E</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>454051014255357</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ERT29E</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1014255357</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Castañeda Montes David Esteban</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Llanta delantera no cumple profundidad (0.02mm) </t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>45406ERT29E</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>454061014255357</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ERT29E</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1014255357</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Castañeda Montes David Esteban</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Llanta delantera no cumple profundidad (0.02mm) </t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>45406FIK22G</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>454061020816755</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FIK22G</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1020816755</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rojas Paez Jefersson Steven</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>TECNOMECANICA VENCIDA</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>45406KKW70C</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>454061006886735</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>TECNOMECANICA VENCIDA</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>45407UZH56D</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>454071022355666</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>45407KKW70C</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>454071006886735</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>45407ERT29E</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>454071014255357</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ERT29E</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1014255357</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Castañeda Montes David Esteban</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>45050</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Llanta delantera no cumple profundidad (0.02mm)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>45407FIK22G</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>454071020816755</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FIK22G</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1020816755</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rojas Paez Jefersson Steven</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>45407NXY41G</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>454071001056489</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>45407IXQ86F</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>454071073715286</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>IXQ86F</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1073715286</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Castellano Caceres Jose Luis</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>45318</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>luces de stop no encienden con ninguno de los 2 frenos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>45408UZH56D</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>454081022355666</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>45408KKW70C</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>454081006886735</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>uz stop freno delantero no enciende</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>45408ERT29E</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>454081014255357</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ERT29E</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1014255357</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Castañeda Montes David Esteban</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>45050</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Llanta delantera no cumple profundidad (0.02mm)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>45408FIK22G</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>454081020816755</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FIK22G</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1020816755</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Rojas Paez Jefersson Steven</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>45408NXY41G</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>454081001056489</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>45408IXQ86F</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>454081073715286</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>IXQ86F</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1073715286</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Castellano Caceres Jose Luis</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>45318</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>luces de stop no encienden con ninguno de los 2 frenos</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>45409UZH56D</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>454091022355666</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>45411UZH56D</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>454111022355666</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>45412UZH56D</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>454121022355666</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>45414UZH56D</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>454141022355666</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>45415UZH56D</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>454151022355666</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>45416UZH56D</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>454161022355666</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>45418UZH56D</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>454181022355666</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>UZH56D</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Becerra Peña Juan David</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>45409KKW70C</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>454091006886735</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>45411KKW70C</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>454111006886735</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>45412KKW70C</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>454121006886735</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>45414KKW70C</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>454141006886735</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>45415KKW70C</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>454151006886735</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>45416KKW70C</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>454161006886735</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>45418KKW70C</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>454181006886735</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>KKW70C</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Perez Tiller Wilberto Dario</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>45409NXY41G</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>454091001056489</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>45411NXY41G</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>454111001056489</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>45412NXY41G</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>454121001056489</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>45414NXY41G</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>454141001056489</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>45415NXY41G</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>454151001056489</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>45416NXY41G</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>454161001056489</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45388NXY41G</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>453881001056489</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>45388</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NXY41G</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Pardo Quintero Duban Yesid</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>DOCUMENTO VENCIDO</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45388OEY82F</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>453881023914315</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>45388</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>OEY82F</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1023914315</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Diaz Amortegui Wilson Andres</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>44370</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Tecnico II / Instalador FTTH</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1197001</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LICENCIA DE CONDUCCIÓN VENCIDA</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/automatismo.xlsx
+++ b/automatismo.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="FESTIVOS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="OTRA INFORMACION" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="INACTIVAS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LIDER" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TECNICOS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Detalles" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="INACTIVAS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1074,6 +1076,694 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CEDULA TECNICO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRE TECNICO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PROYECTO.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>OBSERVACION</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DÍAS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1012381992</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Leon Guerrero Cristian Johan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Aseguramiento FTTC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LABORA DE MARTES A DOMINGO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16 23 30 6</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1033787976</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Malaver Aguillon Brayan Vidal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Aseguramiento FTTC</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LABORA DE MARTES A DOMINGO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16 23 30 6</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1192773078</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Serna Gomez Ronal David</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Aseguramiento FTTC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LABORA DE MARTES A DOMINGO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16 23 30 6</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1023919514</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rodriguez Rojas Jose Miguel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Aseguramiento FTTC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LABORA DE MARTES A DOMINGO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16 23 30 6</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>79617669</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GUILLERMO ALBERTO ARRIAGA TORRALBA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LABORATORIO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TOTAL DIAS</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>79762987</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WILSON VALLEJO FOTASOCA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LABORATORIO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TOTAL DIAS</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>80158956</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OSWALDO CAMACHO SANDOVAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LABORATORIO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TOTAL DIAS</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>79416121</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CLEVES MARTINEZ MARTIN ISAIAS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LABORATORIO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TOTAL DIAS</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1014216754</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Castellanos Diaz Cristian David</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LABORATORIO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TOTAL DIAS</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>19</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CEDULA TECNICO.1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NOMBRE  TECNICO </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PLACA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA INICIO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LIDER.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NOTA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ACTIVAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1001309779</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Muñoz Velásquez Alejandro</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ENQ65D</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bladimir Hernandez </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Laborando en oficina</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1110567663</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Monroy Luis Eduardo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>IMA88E</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bladimir Hernandez </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laborando en oficina </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1046266418</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alvear Sarmiento Luis Alberto </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GDE21F</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>44902</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio Barreto </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laborando en oficina </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1024544549</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Valderrama Grisales Juan David</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CIM93F</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>44733</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Contreras </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Laborando en carro</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>79710462</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colmenares Villamil Edwin Javier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JWN95F</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Victoria Luque </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incapacidada indefinida </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1031176166</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sandoval Ardila Jose German</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FSF72E</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>45064</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex Hernandez </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bladimir Hernandez  envia correo 18/05/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1022406054</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lara Jaraba Jonathan Javier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CJO22F</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>45064</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex Hernandez </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bladimir Hernandez  envia correo 18/05/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1012406274</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Galindo Pulgarin Javier Eduardo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>KRC86G</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>45064</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex Hernandez </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bladimir Hernandez  envia correo 18/05/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1010031219</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cubillos Montaño William</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MKY16E</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>44993</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex Hernandez </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 marzo Bladimir indica que solo trabjara en carro definitivamemte - SALE EN MOTO CONFIRMACION 2/12/2023 KAREN APROVISIONAMIENTO </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NUEVA PLACA ACTIVA JHD61E</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1019114569</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Casallas Moncaleano Yeiner Andres</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MOU05F</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>45275</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauricio Barreto </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>19/12/2023 correo de Yerson Amaya indicando El colaborador relacionado presenta novedad por cambio de moto y teniendo en cuenta que aún no garantiza documentación de la misma (traspaso) agradezco se congele rodamiento desde el 15 Diciembre hasta nuevo aviso</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SE CANCELO EL RODAMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/automatismo.xlsx
+++ b/automatismo.xlsx
@@ -12,6 +12,7 @@
     <sheet name="TECNICOS" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Detalles" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="INACTIVAS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="PQ AUSEN" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -912,7 +913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,31 +1041,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1076,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,31 +1334,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1394,7 +1345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1729,30 +1680,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1892,15 +1819,11 @@
           <t>Aprov Cobre - FTTH</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>TECNOMECÁNICA VENCIDA</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -1961,8 +1884,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -1997,7 +1918,6 @@
           <t>Guejia Orejuela Alex Emiliano</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Tecnico II / Instalador FTTH</t>
@@ -2008,10 +1928,6 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t xml:space="preserve">Se valida bombillo que no le funcionan las luces bajas </t>
@@ -2051,7 +1967,6 @@
           <t>Guejia Orejuela Alex Emiliano</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Tecnico II / Instalador FTTH</t>
@@ -2062,10 +1977,6 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t xml:space="preserve">Se valida bombillo que no le funcionan las luces bajas </t>
@@ -2105,7 +2016,6 @@
           <t>Guejia Orejuela Alex Emiliano</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>Tecnico II / Instalador FTTH</t>
@@ -2116,10 +2026,6 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t xml:space="preserve">Se valida bombillo que no le funcionan las luces bajas </t>
@@ -2159,7 +2065,6 @@
           <t>Castellano Caceres Jose Luis</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>Tecnico II / Instalador FTTH</t>
@@ -2170,10 +2075,6 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>luces de stop no encienden con ninguno de los 2 frenos</t>
@@ -2234,8 +2135,6 @@
       <c r="K8" t="n">
         <v>1197001</v>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -2275,7 +2174,6 @@
           <t>Castañeda Montes David Esteban</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>Tecnico II / Instalador FTTH</t>
@@ -2286,10 +2184,6 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t xml:space="preserve">Llanta delantera no cumple profundidad (0.02mm) </t>
@@ -2329,7 +2223,6 @@
           <t>Castañeda Montes David Esteban</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>Tecnico II / Instalador FTTH</t>
@@ -2340,10 +2233,6 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t xml:space="preserve">Llanta delantera no cumple profundidad (0.02mm) </t>
@@ -2383,7 +2272,6 @@
           <t>Castañeda Montes David Esteban</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>Tecnico II / Instalador FTTH</t>
@@ -2394,10 +2282,6 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t xml:space="preserve">Llanta delantera no cumple profundidad (0.02mm) </t>
@@ -2437,7 +2321,6 @@
           <t>Rojas Paez Jefersson Steven</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>Tecnico II / Instalador FTTH</t>
@@ -2448,15 +2331,11 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>TECNOMECANICA VENCIDA</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -2491,7 +2370,6 @@
           <t>Perez Tiller Wilberto Dario</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>Tecnico II / Instalador FTTH</t>
@@ -2502,15 +2380,11 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>TECNOMECANICA VENCIDA</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -2566,8 +2440,6 @@
       <c r="K14" t="n">
         <v>1197001</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -2620,17 +2492,14 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>1197001</v>
       </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -2678,12 +2547,9 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>1197001</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>Llanta delantera no cumple profundidad (0.02mm)</t>
@@ -2736,17 +2602,14 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>1197001</v>
       </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -2807,8 +2670,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -2856,12 +2717,9 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>1197001</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>luces de stop no encienden con ninguno de los 2 frenos</t>
@@ -2922,8 +2780,6 @@
       <c r="K20" t="n">
         <v>1197001</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -2976,11 +2832,9 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>1197001</v>
       </c>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
@@ -3038,12 +2892,9 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>1197001</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Llanta delantera no cumple profundidad (0.02mm)</t>
@@ -3096,17 +2947,14 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>1197001</v>
       </c>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -3167,8 +3015,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -3216,12 +3062,9 @@
           <t>FTTH - Aprovisionamiento</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>1197001</v>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>luces de stop no encienden con ninguno de los 2 frenos</t>
@@ -3282,8 +3125,6 @@
       <c r="K26" t="n">
         <v>1197001</v>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -3344,8 +3185,6 @@
       <c r="K27" t="n">
         <v>1197001</v>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -3406,8 +3245,6 @@
       <c r="K28" t="n">
         <v>1197001</v>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -3468,8 +3305,6 @@
       <c r="K29" t="n">
         <v>1197001</v>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -3530,8 +3365,6 @@
       <c r="K30" t="n">
         <v>1197001</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -3592,8 +3425,6 @@
       <c r="K31" t="n">
         <v>1197001</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -3654,8 +3485,6 @@
       <c r="K32" t="n">
         <v>1197001</v>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t xml:space="preserve"> llanta delantera no cumple profundidad</t>
@@ -3716,13 +3545,11 @@
       <c r="K33" t="n">
         <v>1197001</v>
       </c>
-      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -3778,13 +3605,11 @@
       <c r="K34" t="n">
         <v>1197001</v>
       </c>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -3840,13 +3665,11 @@
       <c r="K35" t="n">
         <v>1197001</v>
       </c>
-      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -3902,13 +3725,11 @@
       <c r="K36" t="n">
         <v>1197001</v>
       </c>
-      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -3964,13 +3785,11 @@
       <c r="K37" t="n">
         <v>1197001</v>
       </c>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4026,13 +3845,11 @@
       <c r="K38" t="n">
         <v>1197001</v>
       </c>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4088,13 +3905,11 @@
       <c r="K39" t="n">
         <v>1197001</v>
       </c>
-      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4155,8 +3970,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4217,8 +4030,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4279,8 +4090,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4341,8 +4150,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4403,8 +4210,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4465,8 +4270,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4527,8 +4330,6 @@
           <t>DOCUMENTO VENCIDO</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
           <t>INACTIVO</t>
@@ -4584,8 +4385,6 @@
       <c r="K47" t="n">
         <v>1197001</v>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t xml:space="preserve"> LICENCIA DE CONDUCCIÓN VENCIDA</t>
@@ -4598,6 +4397,367 @@
       </c>
       <c r="P47" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA INGRESO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CEDULA TECNICO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NOMBRE TECNICO </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PROYECTO REDSI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CANT DÍAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B2" t="n">
+        <v>87713773</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>YIOVANI EFRAIN FUEL HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1033763953</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WILLIAM NIÑO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1022972053</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>JONATHAN ANDRÉS  ZUBIETA MALAMBO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1065895695</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CRISTIAN ALFONSO  CELON QUINTERO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1073522477</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>YILBER DAVID CAÑON VARGAS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1096206777</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FREDDY ALBERTO  ZULUAGA CASTRO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1192773078</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RONAL DAVID SERNA GOMEZ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FTTC - Aseguramiento</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45318</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1033677216</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MIGUEL ANGEL  LEGUIZAMON HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1033797637</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>EDWIN STEVEN  MENDOZA MORENO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1072195020</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>WILSON HERNAN CAÑAVERAL GARZON</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1004685144</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>HANDERSON IBARRA ORTIZ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1073676757</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CESAR AUGUSTO NIVIAYO CARO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79769034</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>WILQUIN ALEXANDER CANON</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80902984</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DANIEL VELANDIA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1000690306</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>JEAN CARLOS BELLO PINILLOS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FTTH - Aprovisionamiento</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/automatismo.xlsx
+++ b/automatismo.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Detalles" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="INACTIVAS" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="PQ AUSEN" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PQ CAMION" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4763,4 +4764,223 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA SCAN PET</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CEDULA TECNICO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NOMBRE TECNICO </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Centro de costos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>OBSERVACIÓN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cargo colaborador</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>JUAN DAVID BECERRA PEÑA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WILBERTO DARIO PEREZ TILLER</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>JUAN DAVID BECERRA PEÑA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>WILBERTO DARIO PEREZ TILLER</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JUAN DAVID BECERRA PEÑA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>JUAN DAVID BECERRA PEÑA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>JUAN DAVID BECERRA PEÑA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/automatismo.xlsx
+++ b/automatismo.xlsx
@@ -14,6 +14,7 @@
     <sheet name="INACTIVAS" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="PQ AUSEN" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="PQ CAMION" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="CAMIO_2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4829,7 +4830,6 @@
           <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>TECNICO II / INSTALADOR FTTH</t>
@@ -4853,7 +4853,6 @@
           <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>TECNICO II / INSTALADOR FTTH</t>
@@ -4877,7 +4876,6 @@
           <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>TECNICO II / INSTALADOR FTTH</t>
@@ -4901,7 +4899,6 @@
           <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>TECNICO II / INSTALADOR FTTH</t>
@@ -4925,7 +4922,6 @@
           <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>TECNICO II / INSTALADOR FTTH</t>
@@ -4949,7 +4945,6 @@
           <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>TECNICO II / INSTALADOR FTTH</t>
@@ -4973,12 +4968,436 @@
           <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA SCANPET</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CEDULA TECNICO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NOMBRE TECNICO </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CECO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>OBSERVACIÓN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cargo colaborador</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>JUAN DAVID BECERRA PEÑA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WILBERTO DARIO PEREZ TILLER</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1197001 - Aprovisionamiento FTTH C-CW5903-23 BOG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TECNICO II / INSTALADOR FTTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>TECNICO II / INSTALADOR FTTH</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FECHA SCANPET</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CEDULA TECNICO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NOMBRE TECNICO </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CECO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OBSERVACIÓN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>25, 26, 27, 30  abril</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1006886735</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>WILBERTO DARIO PEREZ TILLER</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1197001 - Aprov FTTH</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SOAT VENCIDO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>26, 27, 29 abril</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1020816755</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>JEFERSSON STEVEN  ROJAS PAEZ</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1197001 - Aprov FTTH</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TECNOMECANICA VENCIDA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26, 27, 29, 30  abril</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1022355666</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>JUAN DAVID BECERRA PEÑA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1197001 - Aprov FTTH</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LLANTA DELANTERA EN MAL ESTADO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1001056489</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DUBAN YESID PARDO QUINTERO</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1197001 - Aprov FTTH</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SOAT VENCIDO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1007883588</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LUIS ALBERTO  GARCÍA TORRES</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1197001 - Aprov FTTH</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1073715286</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>JOSE LUIS CASTELLANOS CACERES</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1197001 - Aprov FTTH</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>LUZ STOP EN MAL ESTADO</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
